--- a/src/main/webapp/PersonalConsumption.xlsx
+++ b/src/main/webapp/PersonalConsumption.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26207"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luyanni/Desktop/花旗杯/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\nju-sprial\src\main\webapp\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10560" yWindow="460" windowWidth="19280" windowHeight="13200" tabRatio="500"/>
+    <workbookView xWindow="10560" yWindow="456" windowWidth="19284" windowHeight="13200" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="个人消费信贷等" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
   <si>
     <t>消费用途</t>
     <rPh sb="0" eb="1">
@@ -358,6 +358,9 @@
   <si>
     <t>％</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>固定利率</t>
   </si>
 </sst>
 </file>
@@ -453,6 +456,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -723,11 +729,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
@@ -735,7 +741,7 @@
     <col min="4" max="4" width="19.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -744,7 +750,7 @@
       <c r="D1" s="1"/>
       <c r="N1" s="5"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -753,7 +759,7 @@
       <c r="D2" s="1"/>
       <c r="N2" s="5"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -768,18 +774,20 @@
       </c>
       <c r="N3" s="5"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="1"/>
       <c r="N4" s="5"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -790,7 +798,7 @@
       <c r="D5" s="1"/>
       <c r="N5" s="5"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -805,7 +813,7 @@
       </c>
       <c r="N6" s="5"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -818,7 +826,7 @@
       <c r="D7" s="2"/>
       <c r="N7" s="5"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -833,7 +841,7 @@
       </c>
       <c r="N8" s="5"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
@@ -842,14 +850,14 @@
       <c r="D9" s="1"/>
       <c r="N9" s="5"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="N10" s="5"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
@@ -858,7 +866,7 @@
       <c r="D11" s="1"/>
       <c r="N11" s="5"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
@@ -871,7 +879,7 @@
       <c r="D12" s="1"/>
       <c r="N12" s="5"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
@@ -882,7 +890,7 @@
       <c r="D13" s="1"/>
       <c r="N13" s="5"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>21</v>
       </c>
@@ -895,7 +903,7 @@
       </c>
       <c r="N14" s="5"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
@@ -908,7 +916,7 @@
       </c>
       <c r="N15" s="5"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
@@ -919,7 +927,7 @@
       <c r="D16" s="1"/>
       <c r="N16" s="5"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>27</v>
       </c>
@@ -932,7 +940,7 @@
       </c>
       <c r="N17" s="5"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>29</v>
       </c>
@@ -945,7 +953,7 @@
       </c>
       <c r="N18" s="5"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>31</v>
       </c>
@@ -954,136 +962,136 @@
       <c r="D19" s="7"/>
       <c r="N19" s="5"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="N20" s="5"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="N21" s="5"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="N22" s="5"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="N23" s="5"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="N24" s="5"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="N25" s="5"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="N26" s="5"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="N27" s="5"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="N28" s="5"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="N29" s="5"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="N30" s="5"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="N31" s="5"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="N32" s="5"/>
     </row>
-    <row r="33" spans="14:14" x14ac:dyDescent="0.15">
+    <row r="33" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N33" s="5"/>
     </row>
-    <row r="34" spans="14:14" x14ac:dyDescent="0.15">
+    <row r="34" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N34" s="5"/>
     </row>
-    <row r="35" spans="14:14" x14ac:dyDescent="0.15">
+    <row r="35" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N35" s="5"/>
     </row>
-    <row r="36" spans="14:14" x14ac:dyDescent="0.15">
+    <row r="36" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N36" s="5"/>
     </row>
-    <row r="37" spans="14:14" x14ac:dyDescent="0.15">
+    <row r="37" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N37" s="5"/>
     </row>
-    <row r="38" spans="14:14" x14ac:dyDescent="0.15">
+    <row r="38" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N38" s="5"/>
     </row>
-    <row r="39" spans="14:14" x14ac:dyDescent="0.15">
+    <row r="39" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N39" s="5"/>
     </row>
-    <row r="40" spans="14:14" x14ac:dyDescent="0.15">
+    <row r="40" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N40" s="5"/>
     </row>
-    <row r="41" spans="14:14" x14ac:dyDescent="0.15">
+    <row r="41" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N41" s="5"/>
     </row>
-    <row r="42" spans="14:14" x14ac:dyDescent="0.15">
+    <row r="42" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N42" s="5"/>
     </row>
-    <row r="43" spans="14:14" x14ac:dyDescent="0.15">
+    <row r="43" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N43" s="5"/>
     </row>
-    <row r="44" spans="14:14" x14ac:dyDescent="0.15">
+    <row r="44" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N44" s="5"/>
     </row>
-    <row r="45" spans="14:14" x14ac:dyDescent="0.15">
+    <row r="45" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N45" s="5"/>
     </row>
-    <row r="46" spans="14:14" x14ac:dyDescent="0.15">
+    <row r="46" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N46" s="5"/>
     </row>
-    <row r="47" spans="14:14" x14ac:dyDescent="0.15">
+    <row r="47" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N47" s="5"/>
     </row>
-    <row r="48" spans="14:14" x14ac:dyDescent="0.15">
+    <row r="48" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N48" s="5"/>
     </row>
-    <row r="49" spans="14:14" x14ac:dyDescent="0.15">
+    <row r="49" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N49" s="5"/>
     </row>
-    <row r="50" spans="14:14" x14ac:dyDescent="0.15">
+    <row r="50" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N50" s="5"/>
     </row>
-    <row r="51" spans="14:14" x14ac:dyDescent="0.15">
+    <row r="51" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N51" s="5"/>
     </row>
-    <row r="52" spans="14:14" x14ac:dyDescent="0.15">
+    <row r="52" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N52" s="5"/>
     </row>
-    <row r="53" spans="14:14" x14ac:dyDescent="0.15">
+    <row r="53" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N53" s="5"/>
     </row>
-    <row r="54" spans="14:14" x14ac:dyDescent="0.15">
+    <row r="54" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N54" s="5"/>
     </row>
-    <row r="55" spans="14:14" x14ac:dyDescent="0.15">
+    <row r="55" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N55" s="5"/>
     </row>
-    <row r="56" spans="14:14" x14ac:dyDescent="0.15">
+    <row r="56" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N56" s="5"/>
     </row>
-    <row r="57" spans="14:14" x14ac:dyDescent="0.15">
+    <row r="57" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N57" s="5"/>
     </row>
-    <row r="58" spans="14:14" x14ac:dyDescent="0.15">
+    <row r="58" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N58" s="5"/>
     </row>
-    <row r="59" spans="14:14" x14ac:dyDescent="0.15">
+    <row r="59" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N59" s="5"/>
     </row>
-    <row r="66" spans="14:14" ht="16" x14ac:dyDescent="0.15">
+    <row r="66" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N66" s="6"/>
     </row>
-    <row r="67" spans="14:14" x14ac:dyDescent="0.15">
+    <row r="67" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N67" s="5"/>
     </row>
-    <row r="71" spans="14:14" ht="16" x14ac:dyDescent="0.15">
+    <row r="71" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N71" s="6"/>
     </row>
-    <row r="72" spans="14:14" x14ac:dyDescent="0.15">
+    <row r="72" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N72" s="5"/>
     </row>
   </sheetData>
